--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value316.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value316.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7510749617720485</v>
+        <v>0.7776834964752197</v>
       </c>
       <c r="B1">
-        <v>0.9329289677587672</v>
+        <v>1.28169584274292</v>
       </c>
       <c r="C1">
-        <v>1.30647224634688</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>4.017112051775952</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>3.694456281663261</v>
+        <v>1.63496720790863</v>
       </c>
     </row>
   </sheetData>
